--- a/results/test_dirichlet_UB_LB/test_dirichlet_UB_LB.xlsx
+++ b/results/test_dirichlet_UB_LB/test_dirichlet_UB_LB.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\thin\02_Code\Matlab\CryoGRID\2021-0605_CryoGrid\CryoGridTesting\results\test_GROUND_freeW_ubtf\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\thin\02_Code\Matlab\CryoGRID\2021-0605_CryoGrid\CryoGridTesting\results\test_dirichlet_UB_LB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{999DAD04-DEC8-413F-A3FC-1ED89CF59974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08AF66D2-9A99-4F67-9D44-3996BA7EC127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6285" yWindow="6285" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="139">
   <si>
     <t>CLASS_END</t>
   </si>
@@ -96,18 +96,6 @@
     <t>provide in format dd.mm.yyyy; if left empty, the last timestamp of the forcing data set will be used</t>
   </si>
   <si>
-    <t>rain_fraction</t>
-  </si>
-  <si>
-    <t>rainfall in forcing file multiplied by this number</t>
-  </si>
-  <si>
-    <t>snow_fraction</t>
-  </si>
-  <si>
-    <t>snowfall in forcing file multiplied by this number</t>
-  </si>
-  <si>
     <t>latitude</t>
   </si>
   <si>
@@ -141,15 +129,6 @@
     <t>area of the model realization</t>
   </si>
   <si>
-    <t>heatFlux_lb</t>
-  </si>
-  <si>
-    <t>[W/m2]</t>
-  </si>
-  <si>
-    <t>geothermal heat flux at lower boundary</t>
-  </si>
-  <si>
     <t>airT_height</t>
   </si>
   <si>
@@ -363,12 +342,6 @@
     <t>tag</t>
   </si>
   <si>
-    <t>CG_Beaufort_81_880_short_crop_1yr.mat</t>
-  </si>
-  <si>
-    <t>FORCING_tair_precip</t>
-  </si>
-  <si>
     <t>GROUND_freeW_ubtf</t>
   </si>
   <si>
@@ -454,6 +427,21 @@
   </si>
   <si>
     <t>restart_last_timestep_xlsx.mat</t>
+  </si>
+  <si>
+    <t>FORCING_Tair_Tlb_fixed_mat</t>
+  </si>
+  <si>
+    <t>Constant_Tair=10C.mat</t>
+  </si>
+  <si>
+    <t>T_lb</t>
+  </si>
+  <si>
+    <t>[degC]</t>
+  </si>
+  <si>
+    <t>Lower boundary Temperature (fixed)</t>
   </si>
 </sst>
 </file>
@@ -505,15 +493,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -795,10 +779,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G158"/>
+  <dimension ref="A1:G152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="F100" sqref="F100"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -813,15 +797,15 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -829,15 +813,15 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -849,16 +833,16 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -866,7 +850,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
@@ -874,43 +858,43 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B10" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D10" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B11">
         <v>79</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B12">
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B13">
         <v>20</v>
@@ -919,12 +903,12 @@
         <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B14">
         <v>100</v>
@@ -933,122 +917,122 @@
         <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" t="s">
+        <v>134</v>
+      </c>
+      <c r="F16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" t="s">
+        <v>103</v>
+      </c>
+      <c r="F20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>96</v>
       </c>
-      <c r="B16" t="s">
-        <v>113</v>
-      </c>
-      <c r="F16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>98</v>
-      </c>
-      <c r="B18" t="s">
-        <v>63</v>
-      </c>
-      <c r="F18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B20" t="s">
-        <v>110</v>
-      </c>
-      <c r="F20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B22" t="s">
-        <v>69</v>
-      </c>
-      <c r="F22" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>105</v>
       </c>
       <c r="B24" t="s">
         <v>12</v>
       </c>
       <c r="C24" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D24" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E24" t="s">
         <v>5</v>
       </c>
       <c r="F24" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>104</v>
+      <c r="A25" t="s">
+        <v>97</v>
       </c>
       <c r="B25" t="s">
         <v>12</v>
@@ -1064,24 +1048,24 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>106</v>
+      <c r="A26" t="s">
+        <v>99</v>
       </c>
       <c r="B26" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>107</v>
+      <c r="A27" t="s">
+        <v>100</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>108</v>
+      <c r="A28" t="s">
+        <v>101</v>
       </c>
       <c r="B28" t="s">
         <v>12</v>
@@ -1089,13 +1073,13 @@
       <c r="C28" t="s">
         <v>5</v>
       </c>
-      <c r="F28" s="6" t="s">
-        <v>59</v>
+      <c r="F28" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>109</v>
+      <c r="A29" t="s">
+        <v>102</v>
       </c>
       <c r="B29" t="s">
         <v>12</v>
@@ -1103,28 +1087,27 @@
       <c r="C29" t="s">
         <v>5</v>
       </c>
-      <c r="F29" s="6"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B31" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C31" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B32" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C32" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1133,21 +1116,21 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B38" s="1">
         <v>1</v>
@@ -1155,49 +1138,49 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>0.25</v>
       </c>
       <c r="C39" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D39" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C40" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D40" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D41" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B42" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1206,24 +1189,24 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
+      <c r="A44" s="2"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B47" s="1">
         <v>1</v>
@@ -1231,7 +1214,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B48">
         <v>2</v>
@@ -1243,10 +1226,10 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
+      <c r="A50" s="2"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1255,7 +1238,7 @@
         <v>16</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C52" t="s">
         <v>9</v>
@@ -1263,7 +1246,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="B53" s="1">
         <v>1</v>
@@ -1274,7 +1257,7 @@
         <v>17</v>
       </c>
       <c r="B55" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="D55" t="s">
         <v>18</v>
@@ -1282,10 +1265,10 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B56" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -1296,13 +1279,13 @@
         <v>12</v>
       </c>
       <c r="C57">
-        <v>1980</v>
+        <v>2011</v>
       </c>
       <c r="D57">
         <v>8</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F57" t="s">
         <v>5</v>
@@ -1318,7 +1301,16 @@
       <c r="B58" t="s">
         <v>12</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58">
+        <v>2016</v>
+      </c>
+      <c r="D58">
+        <v>8</v>
+      </c>
+      <c r="E58">
+        <v>3</v>
+      </c>
+      <c r="F58" t="s">
         <v>5</v>
       </c>
       <c r="G58" t="s">
@@ -1327,790 +1319,687 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>23</v>
+        <v>136</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="D59" t="s">
-        <v>24</v>
+        <v>138</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D60" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>27</v>
-      </c>
-      <c r="B61">
-        <v>79</v>
-      </c>
-      <c r="C61" t="s">
-        <v>28</v>
-      </c>
-      <c r="D61" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>30</v>
-      </c>
-      <c r="B62">
-        <v>10</v>
-      </c>
-      <c r="C62" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>31</v>
-      </c>
-      <c r="B63">
-        <v>20</v>
+      <c r="A63" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="C63" t="s">
-        <v>11</v>
-      </c>
-      <c r="D63" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>33</v>
-      </c>
-      <c r="B64">
-        <v>100</v>
-      </c>
-      <c r="C64" t="s">
-        <v>11</v>
-      </c>
-      <c r="D64" t="s">
-        <v>34</v>
+      <c r="A64" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>38</v>
-      </c>
-      <c r="B65">
-        <v>0.05</v>
-      </c>
-      <c r="C65" t="s">
-        <v>39</v>
-      </c>
-      <c r="D65" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>41</v>
-      </c>
-      <c r="B66">
-        <v>2</v>
-      </c>
-      <c r="C66" t="s">
-        <v>11</v>
-      </c>
-      <c r="D66" t="s">
-        <v>42</v>
+      <c r="A65" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B65" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>0</v>
+        <v>61</v>
+      </c>
+      <c r="B67" t="s">
+        <v>60</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0.05</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C69" t="s">
-        <v>9</v>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>0.1</v>
+      </c>
+      <c r="E69">
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
+      <c r="C70">
+        <v>2</v>
+      </c>
+      <c r="D70">
+        <v>0.2</v>
+      </c>
+      <c r="E70">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C71">
+        <v>10</v>
+      </c>
+      <c r="D71">
+        <v>0.5</v>
+      </c>
+      <c r="E71">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C72">
+        <v>20</v>
+      </c>
+      <c r="D72">
+        <v>5</v>
+      </c>
+      <c r="E72">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="2"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B71" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>68</v>
-      </c>
-      <c r="B73" t="s">
-        <v>67</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F73" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C74">
-        <v>0</v>
-      </c>
-      <c r="D74">
-        <v>0.05</v>
-      </c>
-      <c r="E74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C75">
-        <v>1</v>
-      </c>
-      <c r="D75">
-        <v>0.1</v>
-      </c>
-      <c r="E75">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C76">
-        <v>2</v>
-      </c>
-      <c r="D76">
-        <v>0.2</v>
-      </c>
-      <c r="E76">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C77">
-        <v>10</v>
-      </c>
-      <c r="D77">
-        <v>0.5</v>
-      </c>
-      <c r="E77">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C78">
-        <v>20</v>
-      </c>
-      <c r="D78">
-        <v>5</v>
-      </c>
-      <c r="E78">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
-        <v>5</v>
+      <c r="B78" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="4"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B80" t="s">
+        <v>14</v>
+      </c>
+      <c r="C80" t="s">
+        <v>13</v>
+      </c>
+      <c r="D80" t="s">
+        <v>6</v>
+      </c>
+      <c r="E80" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81" t="s">
+        <v>105</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>85</v>
+      </c>
+      <c r="B84" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>63</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>83</v>
+      </c>
+      <c r="B86" t="s">
+        <v>12</v>
+      </c>
+      <c r="C86" t="s">
+        <v>105</v>
+      </c>
+      <c r="D86" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>84</v>
+      </c>
+      <c r="B87" t="s">
+        <v>12</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B92" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>72</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
+      <c r="B94" t="s">
+        <v>14</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E94" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B84" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="F94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <v>0.3</v>
+      </c>
+      <c r="D95">
+        <v>0.5</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B96">
+        <v>0.5</v>
+      </c>
+      <c r="C96">
+        <v>0.5</v>
+      </c>
+      <c r="D96">
+        <v>0.5</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B97">
+        <v>5</v>
+      </c>
+      <c r="C97">
+        <v>0.03</v>
+      </c>
+      <c r="D97">
+        <v>0.97</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="2"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B102" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C102" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B103" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>76</v>
+      </c>
+      <c r="B105" t="s">
         <v>14</v>
       </c>
-      <c r="C86" t="s">
-        <v>13</v>
-      </c>
-      <c r="D86" t="s">
-        <v>6</v>
-      </c>
-      <c r="E86" t="s">
+      <c r="C105" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D105" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B87">
-        <v>0</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="D87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B88" t="s">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B106">
+        <v>0</v>
+      </c>
+      <c r="C106">
         <v>5</v>
       </c>
-      <c r="C88" s="6"/>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B89" s="6"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>92</v>
-      </c>
-      <c r="B90" t="s">
-        <v>125</v>
-      </c>
-      <c r="C90" s="7"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>70</v>
-      </c>
-      <c r="B91">
-        <v>1</v>
-      </c>
-      <c r="C91" s="7"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>90</v>
-      </c>
-      <c r="B92" t="s">
-        <v>12</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="D92" t="s">
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B108">
+        <v>2</v>
+      </c>
+      <c r="C108">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B109">
+        <v>100</v>
+      </c>
+      <c r="C109">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B110">
+        <v>5000</v>
+      </c>
+      <c r="C110">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>91</v>
-      </c>
-      <c r="B93" t="s">
-        <v>12</v>
-      </c>
-      <c r="C93">
-        <v>1</v>
-      </c>
-      <c r="D93" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B98" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>79</v>
-      </c>
-      <c r="B100" t="s">
-        <v>14</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D100" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E100" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F100" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B101">
-        <v>0</v>
-      </c>
-      <c r="C101">
-        <v>0.3</v>
-      </c>
-      <c r="D101">
-        <v>0.5</v>
-      </c>
-      <c r="E101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B102">
-        <v>0.5</v>
-      </c>
-      <c r="C102">
-        <v>0.5</v>
-      </c>
-      <c r="D102">
-        <v>0.5</v>
-      </c>
-      <c r="E102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B103">
-        <v>5</v>
-      </c>
-      <c r="C103">
-        <v>0.03</v>
-      </c>
-      <c r="D103">
-        <v>0.97</v>
-      </c>
-      <c r="E103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B104" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="4"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C108" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B109" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>83</v>
-      </c>
-      <c r="B111" t="s">
-        <v>14</v>
-      </c>
-      <c r="C111" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D111" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B112">
-        <v>0</v>
-      </c>
-      <c r="C112">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B113">
-        <v>1</v>
-      </c>
-      <c r="C113">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B114">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B117" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
         <v>2</v>
       </c>
-      <c r="C114">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B115">
-        <v>100</v>
-      </c>
-      <c r="C115">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B116">
-        <v>5000</v>
-      </c>
-      <c r="C116">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B117" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="4" t="s">
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>3</v>
+      </c>
+      <c r="B120">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>4</v>
+      </c>
+      <c r="B121">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B123" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B124" s="3"/>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B125" s="3" t="s">
+      <c r="C125" t="s">
+        <v>8</v>
+      </c>
+      <c r="D125" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B127" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>3</v>
-      </c>
-      <c r="B126" s="3">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>4</v>
-      </c>
-      <c r="B127" s="3">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>0</v>
-      </c>
-      <c r="B128" s="3"/>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B129" s="3"/>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>117</v>
+      </c>
+      <c r="B130">
+        <v>0</v>
+      </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C131" t="s">
-        <v>8</v>
-      </c>
-      <c r="D131" t="s">
-        <v>9</v>
+      <c r="A131" t="s">
+        <v>118</v>
+      </c>
+      <c r="B131">
+        <v>0.71</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>93</v>
+      <c r="A132" t="s">
+        <v>119</v>
+      </c>
+      <c r="B132">
+        <v>0.21</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B133" s="1">
-        <v>1</v>
+      <c r="A133" t="s">
+        <v>120</v>
+      </c>
+      <c r="B133">
+        <v>0.99</v>
+      </c>
+      <c r="C133">
+        <v>0.99</v>
+      </c>
+      <c r="D133" t="s">
+        <v>10</v>
+      </c>
+      <c r="E133" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>122</v>
+      </c>
+      <c r="B134">
+        <v>1E-3</v>
+      </c>
+      <c r="C134">
+        <v>1E-3</v>
+      </c>
+      <c r="D134" t="s">
+        <v>11</v>
+      </c>
+      <c r="E134" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B135" t="s">
-        <v>2</v>
+      <c r="A135" t="s">
+        <v>124</v>
+      </c>
+      <c r="B135">
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
+        <v>125</v>
+      </c>
+      <c r="B136">
+        <v>48</v>
+      </c>
+      <c r="D136" t="s">
         <v>126</v>
-      </c>
-      <c r="B136">
-        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>127</v>
+        <v>70</v>
       </c>
       <c r="B137">
-        <v>0.71</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>128</v>
-      </c>
-      <c r="B138">
-        <v>0.21</v>
+        <v>127</v>
+      </c>
+      <c r="B138" s="4">
+        <v>1E-4</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B139">
-        <v>0.99</v>
-      </c>
-      <c r="C139">
-        <v>0.99</v>
-      </c>
-      <c r="D139" t="s">
-        <v>10</v>
-      </c>
-      <c r="E139" t="s">
-        <v>130</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>131</v>
+        <v>3</v>
       </c>
       <c r="B140">
-        <v>1E-3</v>
+        <v>3600</v>
       </c>
       <c r="C140">
-        <v>1E-3</v>
+        <v>3600</v>
       </c>
       <c r="D140" t="s">
-        <v>11</v>
+        <v>129</v>
       </c>
       <c r="E140" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>133</v>
+        <v>4</v>
       </c>
       <c r="B141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>134</v>
-      </c>
-      <c r="B142">
-        <v>48</v>
-      </c>
-      <c r="D142" t="s">
-        <v>135</v>
+        <v>50000</v>
+      </c>
+      <c r="C141">
+        <v>50000</v>
+      </c>
+      <c r="D141" t="s">
+        <v>131</v>
+      </c>
+      <c r="E141" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B143">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>136</v>
-      </c>
-      <c r="B144" s="8">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>137</v>
-      </c>
-      <c r="B145">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>3</v>
-      </c>
-      <c r="B146">
-        <v>3600</v>
-      </c>
-      <c r="C146">
-        <v>3600</v>
-      </c>
-      <c r="D146" t="s">
-        <v>138</v>
-      </c>
-      <c r="E146" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>4</v>
-      </c>
-      <c r="B147">
-        <v>50000</v>
-      </c>
-      <c r="C147">
-        <v>50000</v>
-      </c>
-      <c r="D147" t="s">
-        <v>140</v>
-      </c>
-      <c r="E147" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C153" s="3"/>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B154" s="2">
-        <v>1</v>
-      </c>
-      <c r="C154" s="3"/>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B155" s="3"/>
-      <c r="C155" s="3"/>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B156" s="3" t="s">
+      <c r="B147" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B148" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B150" t="s">
         <v>2</v>
       </c>
-      <c r="C156" s="3" t="s">
+      <c r="C150" t="s">
         <v>8</v>
       </c>
-      <c r="D156" t="s">
+      <c r="D150" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>60</v>
-      </c>
-      <c r="B157" s="3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>53</v>
+      </c>
+      <c r="B151">
         <v>0.25</v>
       </c>
-      <c r="C157" s="3"/>
-      <c r="D157" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>0</v>
-      </c>
-      <c r="B158" s="3"/>
-      <c r="C158" s="3"/>
+      <c r="D151" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
